--- a/Planering/ER och Variabler.xlsx
+++ b/Planering/ER och Variabler.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>ER-modell</t>
   </si>
@@ -34,13 +34,175 @@
   </si>
   <si>
     <t>Admins</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>OrderId</t>
+  </si>
+  <si>
+    <t>OrderDescription</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>CusName</t>
+  </si>
+  <si>
+    <t>CusEmail</t>
+  </si>
+  <si>
+    <t>CusPhone</t>
+  </si>
+  <si>
+    <t>OrderStart</t>
+  </si>
+  <si>
+    <t>OrderEnd</t>
+  </si>
+  <si>
+    <t>OrderComplete</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>OrderEstTime</t>
+  </si>
+  <si>
+    <t>OrderPrice</t>
+  </si>
+  <si>
+    <t>OrderResponse</t>
+  </si>
+  <si>
+    <t>OrderTime</t>
+  </si>
+  <si>
+    <t>CusId</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>AddressId</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>CusAddress</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Kopplat till Address</t>
+  </si>
+  <si>
+    <t>Kommentar, instruktion, kod, trappor?</t>
+  </si>
+  <si>
+    <t>Beskriver jobbet som ska utföras</t>
+  </si>
+  <si>
+    <t>Möjlighet att svara på order</t>
+  </si>
+  <si>
+    <t>OrderAccept</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Möjlighet att neka order</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>När ordern kom in</t>
+  </si>
+  <si>
+    <t>Jobbet på ordern inleds</t>
+  </si>
+  <si>
+    <t>Jobbet är färdigt</t>
+  </si>
+  <si>
+    <t>Total tid som ska debiteras</t>
+  </si>
+  <si>
+    <t>Färdig, Yes!</t>
+  </si>
+  <si>
+    <t>Totala priset på jobbet</t>
+  </si>
+  <si>
+    <t>OpId</t>
+  </si>
+  <si>
+    <t>Idnummer för att se vem som utfört jobbet</t>
+  </si>
+  <si>
+    <t>Stad jag är i</t>
+  </si>
+  <si>
+    <t>CusCompany</t>
+  </si>
+  <si>
+    <t>CusInfo</t>
+  </si>
+  <si>
+    <t>Admin eller Op uppskattar tid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,13 +218,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,9 +252,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,42 +560,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J7"/>
+  <dimension ref="B4:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" customWidth="1"/>
+    <col min="16" max="16" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
